--- a/biology/Botanique/Xanthomonas_translucens/Xanthomonas_translucens.xlsx
+++ b/biology/Botanique/Xanthomonas_translucens/Xanthomonas_translucens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xanthomonas translucens est une espèce de proteobactéries de la famille des  Xanthomonadaceae. Ce sont des bactéries phytopathogènes dont il existe de nombreuses souches, ou pathovars, responsables de diverses maladies des plantes, en particulier la maladie des stries bactériennes (ou glume noire des céréales) causée par Xanthomonas translucens pv. translucens et le flétrissement bactérien des graminées, causé par Xanthomonas translucens pv graminis.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (4 août 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (4 août 2018) :
 Xanthomonas translucens DAR61454
 Xanthomonas translucens pv. arrhenatheri (Egli &amp; Schmidt 1982) Vauterin &amp; al. 1995
 Xanthomonas translucens pv. cerealis
